--- a/实验结果/算法性能数据50000.xlsx
+++ b/实验结果/算法性能数据50000.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-560" yWindow="4020" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
     <sheet name="欧式距离算法" sheetId="2" r:id="rId2"/>
-    <sheet name="矩形格子算法（Full）" sheetId="5" r:id="rId3"/>
-    <sheet name="坐标轴链表法" sheetId="3" r:id="rId4"/>
-    <sheet name="坐标轴十字链表法" sheetId="4" r:id="rId5"/>
+    <sheet name="矩形格子算法(1250)" sheetId="5" r:id="rId3"/>
+    <sheet name="六边形格子算法(1250)" sheetId="6" r:id="rId4"/>
+    <sheet name="坐标轴链表法" sheetId="3" r:id="rId5"/>
+    <sheet name="坐标轴十字链表法" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
   <si>
     <t>实验数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -241,8 +242,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,8 +263,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -270,6 +276,7 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -277,6 +284,7 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -607,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +942,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1353,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1471,13 +1479,13 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
-        <v>14.12</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="2">
+        <v>13.67</v>
+      </c>
+      <c r="C11" s="2">
         <v>89.444220000000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>94.6</v>
       </c>
     </row>
@@ -1485,17 +1493,29 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>89.672809999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>99.1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="19">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2">
+        <v>13.54</v>
+      </c>
+      <c r="C13" s="7">
+        <v>87.921000000000006</v>
+      </c>
+      <c r="D13" s="7">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="19">
       <c r="A14" s="5" t="s">
@@ -1597,99 +1617,26 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="19">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="19">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="19">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="19">
-      <c r="A32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="19">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="19">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" ht="19">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="19">
-      <c r="A38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1700,7 +1647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -2025,7 +1972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
